--- a/Experiments/Fundamental_physics/粘性系数/data/data.xlsx
+++ b/Experiments/Fundamental_physics/粘性系数/data/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanto\Code\Code\Experiments\Fundamental_physics\粘性系数\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Experiments\Fundamental_physics\粘性系数\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92A3CC-74F7-4D07-886E-B581CF987DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C5EAF7-68B8-43B4-BB64-9CB430727ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{EE1D879B-527C-480B-A414-9199173CA1D1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{EE1D879B-527C-480B-A414-9199173CA1D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,10 +82,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -464,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA13D3-E8EF-4E2B-84CE-91D5A4CB57F9}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="A1:L16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="10" max="10" width="15.796875" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" customWidth="1"/>
+    <col min="11" max="11" width="18.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>3.012</v>
       </c>
@@ -550,7 +558,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2.9910000000000001</v>
       </c>
@@ -572,7 +580,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2.9929999999999999</v>
       </c>
@@ -592,7 +600,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2.9950000000000001</v>
       </c>
@@ -610,7 +618,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>3.01</v>
       </c>
@@ -628,7 +636,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>2.9950000000000001</v>
       </c>
@@ -646,7 +654,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>3.0049999999999999</v>
       </c>
@@ -664,7 +672,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>2.99</v>
       </c>
@@ -682,7 +690,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>2.9910000000000001</v>
       </c>
@@ -700,7 +708,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>3.0089999999999999</v>
       </c>
@@ -718,7 +726,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>2.992</v>
       </c>
@@ -736,7 +744,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>3.008</v>
       </c>
@@ -754,7 +762,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>2.9929999999999999</v>
       </c>
@@ -770,7 +778,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -784,7 +792,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <f>AVERAGE(A2:A14)/1000</f>
         <v>2.9987692307692311E-3</v>
@@ -832,8 +840,204 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B18">
+        <f>B16-3*D16</f>
+        <v>1.0692307692307694E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518A24D-07EB-4EEC-AEB8-0910A9DAD63C}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="1">
+        <v>3.012</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="J1" s="1">
+        <v>3.0089999999999999</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2.992</v>
+      </c>
+      <c r="L1" s="1">
+        <v>3.008</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2.9929999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.15429999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>3.4971999999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.4885999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.4725000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.4752000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.4426999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.3974000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.4095</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.3653</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.3713000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.3203999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.2995000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.3187000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <f>A7/A8</f>
+        <v>4.4121011094589956E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:L9" si="0">B7/B8</f>
+        <v>4.4229776987903459E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.4434845212383008E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.4400322283609572E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.4819473087983265E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.5417083652204621E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.5255902625018329E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.5850295664576705E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4.5768694568860673E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4.6470304782556322E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>4.6764661312320044E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>4.6494109139120735E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="K11">
+        <f>AVERAGE(A9:L9)</f>
+        <v>4.5335540034260553E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>